--- a/src/OutlookAdReport.Export.ExcelExport/BaseSheet.xlsx
+++ b/src/OutlookAdReport.Export.ExcelExport/BaseSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschnell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA1DBC-A90E-4569-B11D-09BEA68DAB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A04E445-0545-4F34-9879-29A418D722F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B6B8B0B6-529B-47CC-9FF3-B4FF79A875F4}"/>
+    <workbookView xWindow="4245" yWindow="2100" windowWidth="21060" windowHeight="15435" activeTab="1" xr2:uid="{B6B8B0B6-529B-47CC-9FF3-B4FF79A875F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsbericht" sheetId="2" r:id="rId1"/>
+    <sheet name="Spesen" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Dat.</t>
   </si>
@@ -78,13 +79,32 @@
   </si>
   <si>
     <t>Ft.</t>
+  </si>
+  <si>
+    <t>Orte</t>
+  </si>
+  <si>
+    <t>Std.</t>
+  </si>
+  <si>
+    <t>Ver.-Pausch.</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Ende</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,14 +141,8 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,49 +159,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C50066-CCC0-4185-8796-876F2A5EF3D6}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +509,7 @@
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,24 +552,53 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A2015-0BB5-40D0-B597-CE0BDD18A270}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>